--- a/openpy_dsse/examples/37NodeIEEE/MEAS_files/Pos_MEAS_error_DSS.xlsx
+++ b/openpy_dsse/examples/37NodeIEEE/MEAS_files/Pos_MEAS_error_DSS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\GitHub\OpenPy-DSSE\openpy_dsse\examples\37NodeIEEE\MEAS_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC1BF9-95F4-43D8-9918-95790D0F7314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus_i" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,12 @@
     <sheet name="Bus_i_PMU" sheetId="3" r:id="rId3"/>
     <sheet name="Elem_ft_PMU" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bus_i!$A$1:$L$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Bus_i_PMU!$A$1:$E$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Elem_ft!$A$1:$J$36</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -304,8 +315,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,11 +379,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -414,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +465,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,6 +517,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -655,14 +710,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -729,16 +787,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>-0.14037</v>
+        <v>-0.14036999999999999</v>
       </c>
       <c r="K2">
-        <v>-0.05416</v>
+        <v>-5.416E-2</v>
       </c>
       <c r="L2">
-        <v>-0.02708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>-2.708E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -746,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.00487</v>
+        <v>4.8700000000000002E-3</v>
       </c>
       <c r="D3">
-        <v>0.9850100000000001</v>
+        <v>0.98501000000000005</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -761,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-0.00088</v>
+        <v>-8.8000000000000003E-4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -776,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -799,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>8.000000000000001E-05</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -814,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -822,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>-0.00184</v>
+        <v>-1.8400000000000001E-3</v>
       </c>
       <c r="D5">
-        <v>0.97677</v>
+        <v>0.97677000000000003</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,16 +901,16 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.04018</v>
+        <v>-4.018E-2</v>
       </c>
       <c r="K5">
-        <v>-0.008160000000000001</v>
+        <v>-8.1600000000000006E-3</v>
       </c>
       <c r="L5">
-        <v>-0.00384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>-3.8400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -875,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.00058</v>
+        <v>5.8E-4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -890,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -907,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.0349</v>
+        <v>3.49E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -922,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>-0.00435</v>
+        <v>-4.3499999999999997E-3</v>
       </c>
       <c r="L7">
-        <v>-0.00217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>-2.1700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -957,16 +1015,16 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.07955000000000001</v>
+        <v>7.955000000000001E-2</v>
       </c>
       <c r="K8">
-        <v>-0.008630000000000001</v>
+        <v>-8.6300000000000005E-3</v>
       </c>
       <c r="L8">
-        <v>-0.00406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>-4.0600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -989,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.0022</v>
+        <v>-2.2000000000000001E-3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1004,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1036,13 +1094,13 @@
         <v>-0.10375</v>
       </c>
       <c r="K10">
-        <v>-0.00333</v>
+        <v>-3.3300000000000001E-3</v>
       </c>
       <c r="L10">
-        <v>-0.00154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>-1.5399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1071,16 +1129,16 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>-0.05951000000000001</v>
+        <v>-5.9510000000000007E-2</v>
       </c>
       <c r="K11">
-        <v>-0.007990000000000001</v>
+        <v>-7.9900000000000006E-3</v>
       </c>
       <c r="L11">
-        <v>-0.00376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>-3.7599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1097,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>-0.01522</v>
+        <v>-1.5219999999999999E-2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1112,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>-0.00877</v>
+        <v>-8.77E-3</v>
       </c>
       <c r="L12">
-        <v>-0.00415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>-4.15E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1135,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.00638</v>
+        <v>6.3800000000000003E-3</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1150,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>-0.00855</v>
+        <v>-8.5500000000000003E-3</v>
       </c>
       <c r="L13">
-        <v>-0.00403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>-4.0299999999999997E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1179,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.00114</v>
+        <v>1.14E-3</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1194,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1211,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>-0.004990000000000001</v>
+        <v>-4.9900000000000014E-3</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1226,13 +1284,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>-0.00418</v>
+        <v>-4.1799999999999997E-3</v>
       </c>
       <c r="L15">
-        <v>-0.00209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>-2.0899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1255,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.0009000000000000001</v>
+        <v>9.0000000000000008E-4</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1270,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.02924</v>
+        <v>2.9239999999999999E-2</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1302,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>-0.00408</v>
+        <v>-4.0800000000000003E-3</v>
       </c>
       <c r="L17">
-        <v>-0.00204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>-2.0400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1340,13 +1398,13 @@
         <v>-0.10308</v>
       </c>
       <c r="K18">
-        <v>-0.01402</v>
+        <v>-1.4019999999999999E-2</v>
       </c>
       <c r="L18">
-        <v>-0.00677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>-6.77E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1354,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>-0.00158</v>
+        <v>-1.58E-3</v>
       </c>
       <c r="D19">
-        <v>0.96517</v>
+        <v>0.96516999999999997</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1369,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1384,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1416,13 +1474,13 @@
         <v>-0.12678</v>
       </c>
       <c r="K20">
-        <v>-0.00716</v>
+        <v>-7.1599999999999997E-3</v>
       </c>
       <c r="L20">
-        <v>-0.00325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>-3.2499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1454,13 +1512,13 @@
         <v>-0.10069</v>
       </c>
       <c r="K21">
-        <v>-0.00378</v>
+        <v>-3.7799999999999999E-3</v>
       </c>
       <c r="L21">
-        <v>-0.00189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>-1.89E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.0009000000000000001</v>
+        <v>9.0000000000000008E-4</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1498,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1515,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>-0.0412</v>
+        <v>-4.1200000000000001E-2</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1530,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>-0.00764</v>
+        <v>-7.6400000000000001E-3</v>
       </c>
       <c r="L23">
-        <v>-0.0036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1559,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>-0.00068</v>
+        <v>-6.8000000000000005E-4</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1574,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1591,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>-0.006450000000000001</v>
+        <v>-6.4500000000000009E-3</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1606,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>-0.008449999999999999</v>
+        <v>-8.4499999999999992E-3</v>
       </c>
       <c r="L25">
-        <v>-0.00397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>-3.9699999999999996E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1620,16 +1678,16 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.00322</v>
+        <v>-3.2200000000000002E-3</v>
       </c>
       <c r="D26">
-        <v>0.95725</v>
+        <v>0.95725000000000005</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>-0.007680000000000001</v>
+        <v>-7.6800000000000011E-3</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1644,13 +1702,13 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>-0.00384</v>
+        <v>-3.8400000000000001E-3</v>
       </c>
       <c r="L26">
-        <v>-0.00192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>-1.92E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1673,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>-0.00012</v>
+        <v>-1.2E-4</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1688,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1705,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0.02268</v>
+        <v>2.2679999999999999E-2</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1720,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>-0.00412</v>
+        <v>-4.1200000000000004E-3</v>
       </c>
       <c r="L28">
-        <v>-0.00197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>-1.97E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1755,16 +1813,16 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>-0.0019</v>
+        <v>-1.9E-3</v>
       </c>
       <c r="K29">
-        <v>-0.00848</v>
+        <v>-8.4799999999999997E-3</v>
       </c>
       <c r="L29">
-        <v>-0.00399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>-3.9899999999999996E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1781,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>-0.022</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1796,13 +1854,13 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>-0.00791</v>
+        <v>-7.9100000000000004E-3</v>
       </c>
       <c r="L30">
-        <v>-0.00372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>-3.7200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1834,13 +1892,13 @@
         <v>-0.1676</v>
       </c>
       <c r="K31">
-        <v>-0.0035</v>
+        <v>-3.5000000000000001E-3</v>
       </c>
       <c r="L31">
-        <v>-0.00175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>-1.75E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1869,16 +1927,16 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.03516</v>
+        <v>3.5159999999999997E-2</v>
       </c>
       <c r="K32">
-        <v>-0.00435</v>
+        <v>-4.3499999999999997E-3</v>
       </c>
       <c r="L32">
-        <v>-0.00217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>-2.1700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1910,13 +1968,13 @@
         <v>0.24897</v>
       </c>
       <c r="K33">
-        <v>-0.01678</v>
+        <v>-1.678E-2</v>
       </c>
       <c r="L33">
-        <v>-0.008059999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>-8.0599999999999995E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1924,10 +1982,10 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="D34">
-        <v>0.96152</v>
+        <v>0.96152000000000004</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1945,16 +2003,16 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.11131</v>
+        <v>0.11131000000000001</v>
       </c>
       <c r="K34">
-        <v>-0.014</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="L34">
-        <v>-0.00689</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>-6.8900000000000003E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1983,16 +2041,16 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>-0.02878</v>
+        <v>-2.878E-2</v>
       </c>
       <c r="K35">
-        <v>-0.01224</v>
+        <v>-1.2239999999999999E-2</v>
       </c>
       <c r="L35">
-        <v>-0.00612</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>-6.1199999999999996E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2000,16 +2058,16 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>-0.01151</v>
+        <v>-1.1509999999999999E-2</v>
       </c>
       <c r="D36">
-        <v>0.9616</v>
+        <v>0.96160000000000001</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>-0.00345</v>
+        <v>-3.4499999999999999E-3</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2024,26 +2082,35 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>-0.00407</v>
+        <v>-4.0699999999999998E-3</v>
       </c>
       <c r="L36">
-        <v>-0.00198</v>
+        <v>-1.98E-3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L36" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -2075,7 +2142,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2107,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2139,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2171,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2185,13 +2252,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>-0.01775</v>
+        <v>-1.7749999999999998E-2</v>
       </c>
       <c r="F5">
-        <v>0.10823</v>
+        <v>0.10823000000000001</v>
       </c>
       <c r="G5">
-        <v>0.0524</v>
+        <v>5.2400000000000002E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2203,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2235,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -2267,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -2299,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2331,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2363,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2395,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2427,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2459,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2491,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -2505,10 +2572,10 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>-0.01494</v>
+        <v>-1.494E-2</v>
       </c>
       <c r="F15">
-        <v>0.06279</v>
+        <v>6.2789999999999999E-2</v>
       </c>
       <c r="G15">
         <v>0.03</v>
@@ -2523,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -2555,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -2587,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -2619,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -2651,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2683,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2715,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -2747,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -2761,13 +2828,13 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.03385000000000001</v>
+        <v>3.3850000000000012E-2</v>
       </c>
       <c r="F23">
-        <v>0.04584</v>
+        <v>4.5839999999999999E-2</v>
       </c>
       <c r="G23">
-        <v>0.02188</v>
+        <v>2.188E-2</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2779,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2811,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -2843,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2875,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -2907,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -2939,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -2971,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -3003,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3035,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -3067,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -3099,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -3131,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -3163,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -3177,10 +3244,10 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.00102</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="F36">
-        <v>0.24746</v>
+        <v>0.24746000000000001</v>
       </c>
       <c r="G36">
         <v>0.122</v>
@@ -3196,19 +3263,22 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J36" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3225,7 +3295,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -3233,16 +3303,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.0006400000000000001</v>
+        <v>-6.4000000000000005E-4</v>
       </c>
       <c r="D2">
-        <v>0.99936</v>
+        <v>0.99936000000000003</v>
       </c>
       <c r="E2">
         <v>29.9802</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3259,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3276,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3293,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3310,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3318,16 +3388,16 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D7">
-        <v>0.97462</v>
+        <v>0.97462000000000004</v>
       </c>
       <c r="E7">
-        <v>29.46451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>29.464510000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3344,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3361,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3378,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3395,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3412,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3429,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3446,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3463,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3480,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3497,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3514,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3531,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3548,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3565,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3582,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3599,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3616,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3624,16 +3694,16 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0.0021</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D25">
         <v>0.96314</v>
       </c>
       <c r="E25">
-        <v>29.4764</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>29.476400000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3650,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3667,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3684,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3701,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3718,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3735,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3752,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3769,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3786,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3803,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3820,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3838,19 +3908,22 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E37" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -3873,7 +3946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3896,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -3919,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -3942,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -3965,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -3988,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4011,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -4034,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -4057,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -4080,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -4103,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -4126,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -4149,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -4172,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -4195,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -4218,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -4241,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4264,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -4287,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -4310,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -4333,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -4356,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -4379,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -4402,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -4425,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -4448,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -4471,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -4494,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -4517,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -4540,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -4563,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -4586,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -4609,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -4632,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -4655,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
